--- a/src/results/Bernat_sections/check_thrust_conv.xlsx
+++ b/src/results/Bernat_sections/check_thrust_conv.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernat.serra\Desktop\Apuntes_Wind_turbines_Munich\Rotor_and_Wake_Aerodynamics\Assignment_1\results\tip-correction\prandtl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D219DEC4-DB30-4C89-AC1C-A6BBFFB07612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC071660-962E-4695-A3C5-1294B36EEA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="check_thrust_conv" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">check_thrust_conv!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">check_thrust_conv!$N$3:$N$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">check_thrust_conv!$O$3:$O$12</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>constant discretization</t>
   </si>
@@ -36,10 +31,16 @@
     <t>cos</t>
   </si>
   <si>
-    <t>fixed 35 cosine</t>
+    <t>[N/rho]</t>
   </si>
   <si>
-    <t>azimuth</t>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>radial discretization , alligned</t>
+  </si>
+  <si>
+    <t>azimuthal discretization, nr50, yawed</t>
   </si>
 </sst>
 </file>
@@ -523,10 +524,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -691,39 +695,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$D$3:$D$12</c:f>
+              <c:f>check_thrust_conv!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>263651.33032730361</c:v>
+                  <c:v>322.97287965094694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261379.00346513122</c:v>
+                  <c:v>320.18927924478578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260100.95549026559</c:v>
+                  <c:v>318.62367047557535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>259396.95588484631</c:v>
+                  <c:v>317.76127095893679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258990.57619177882</c:v>
+                  <c:v>317.26345583492906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>258603.50589510059</c:v>
+                  <c:v>316.78929472149827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258453.25518059239</c:v>
+                  <c:v>316.60523759622572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>258333.5954812218</c:v>
+                  <c:v>316.4586544644967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>258273.47721965995</c:v>
+                  <c:v>316.3850095940835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>258170.49178326497</c:v>
+                  <c:v>316.2588524344996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +756,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$F$3:$F$12</c:f>
+              <c:f>check_thrust_conv!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -791,39 +795,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$G$3:$G$12</c:f>
+              <c:f>check_thrust_conv!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>261423.88975783679</c:v>
+                  <c:v>320.24426495335007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260101.02412724114</c:v>
+                  <c:v>318.62375455587045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>259212.73425752614</c:v>
+                  <c:v>317.53559946546955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258625.98012943106</c:v>
+                  <c:v>316.81682565855306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258369.55633992335</c:v>
+                  <c:v>316.50270651640614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>258206.90399167468</c:v>
+                  <c:v>316.30345738980151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258165.68738573728</c:v>
+                  <c:v>316.25296704752822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>258150.02792221383</c:v>
+                  <c:v>316.23378420471198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>258150.02792221383</c:v>
+                  <c:v>316.23378420471198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>258150.02792221383</c:v>
+                  <c:v>316.23378420471198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$M$3:$M$12</c:f>
+              <c:f>check_thrust_conv!$U$3:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1140,7 +1144,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$N$3:$N$12</c:f>
+              <c:f>check_thrust_conv!$V$3:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1213,7 +1217,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$M$3:$M$12</c:f>
+              <c:f>check_thrust_conv!$U$3:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1252,7 +1256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>check_thrust_conv!$O$3:$O$12</c:f>
+              <c:f>check_thrust_conv!$W$3:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1484,6 +1488,443 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>check_thrust_conv!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>check_thrust_conv!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>305.84325238080396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.9323796859963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306.06513413978354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.02832100797207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.00954682191247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306.00919764688763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>306.00741567831795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306.007595448693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-751A-4724-AEE4-071376C3CF04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>check_thrust_conv!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>check_thrust_conv!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>305.52306946548595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.56799398614072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305.73978359934824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>305.67737437807909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.65945653910893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.65456659498415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305.65664422313807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305.65870711993205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-751A-4724-AEE4-071376C3CF04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442094904"/>
+        <c:axId val="442093920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442094904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442093920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442093920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442094904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1564,6 +2005,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2081,6 +2562,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2601,15 +3598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2636,13 +3633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
@@ -2665,6 +3662,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAA4977-1E01-4C29-877B-EC2069D00928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2970,413 +4003,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S13"/>
+  <dimension ref="C1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
         <v>263651.33032730361</v>
       </c>
-      <c r="F3">
+      <c r="E3">
+        <f>(D3*1.225)/1000</f>
+        <v>322.97287965094694</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>261423.88975783679</v>
       </c>
       <c r="I3">
+        <f>(H3*1.225)/1000</f>
+        <v>320.24426495335007</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>258217.5128172535</v>
+      <c r="L3">
+        <v>249667.96112718689</v>
       </c>
       <c r="M3">
+        <f>(L3*1.225)/1000</f>
+        <v>305.84325238080396</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>249406.58731876398</v>
+      </c>
+      <c r="Q3">
+        <f>(P3*1.225)/1000</f>
+        <v>305.52306946548595</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <f>0.6+N3 - 1.4*(N3)</f>
+      <c r="W3">
+        <f>0.6+V3 - 1.4*(V3)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <f>0.6+R3 - 1.4*(R3)</f>
+      <c r="AA3">
+        <f>0.6+Z3 - 1.4*(Z3)</f>
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
         <v>261379.00346513122</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="0">(D4*1.225)/1000</f>
+        <v>320.18927924478578</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>260101.02412724114</v>
       </c>
       <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>258217.5128172535</v>
+        <f t="shared" ref="I4:I12" si="1">(H4*1.225)/1000</f>
+        <v>318.62375455587045</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>249740.71811101737</v>
       </c>
       <c r="M4">
+        <f t="shared" ref="M4:M10" si="2">(L4*1.225)/1000</f>
+        <v>305.9323796859963</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>249443.26039684954</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q6" si="3">(P4*1.225)/1000</f>
+        <v>305.56799398614072</v>
+      </c>
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="V4">
         <v>0.939693</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O12" si="0">0.6+N4 - 1.4*(N4)</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W12" si="4">0.6+V4 - 1.4*(V4)</f>
         <v>0.22412279999999996</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>0.95105700000000004</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S12" si="1">0.6+R4 - 1.4*(R4)</f>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA12" si="5">0.6+Z4 - 1.4*(Z4)</f>
         <v>0.21957720000000025</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
         <v>260100.95549026559</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>318.62367047557535</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>259212.73425752614</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>317.53559946546955</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>249849.08909370084</v>
       </c>
       <c r="M5">
+        <f t="shared" si="2"/>
+        <v>306.06513413978354</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>249583.49681579444</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>305.73978359934824</v>
+      </c>
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="V5">
         <v>0.76604399999999995</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
+      <c r="W5">
+        <f t="shared" si="4"/>
         <v>0.29358240000000024</v>
       </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>0.80901699999999999</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
+      <c r="AA5">
+        <f t="shared" si="5"/>
         <v>0.27639320000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6">
         <v>259396.95588484631</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>317.76127095893679</v>
+      </c>
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>258625.98012943106</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>316.81682565855306</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>249819.03755752818</v>
       </c>
       <c r="M6">
+        <f t="shared" si="2"/>
+        <v>306.02832100797207</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>249532.5505127176</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>305.67737437807909</v>
+      </c>
+      <c r="U6">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="V6">
         <v>0.5</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
+      <c r="W6">
+        <f t="shared" si="4"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q6">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="Z6">
         <v>0.587785</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
+      <c r="AA6">
+        <f t="shared" si="5"/>
         <v>0.36488599999999993</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
         <v>258990.57619177882</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>317.26345583492906</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>258369.55633992335</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>316.50270651640614</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>249803.71169135708</v>
       </c>
       <c r="M7">
+        <f t="shared" si="2"/>
+        <v>306.00954682191247</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>249517.92370539502</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="6">(P7*1.225)/1000</f>
+        <v>305.65945653910893</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="N7">
+      <c r="V7">
         <v>0.173648</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
+      <c r="W7">
+        <f t="shared" si="4"/>
         <v>0.53054080000000003</v>
       </c>
-      <c r="Q7">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="Z7">
         <v>0.30901699999999999</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
+      <c r="AA7">
+        <f t="shared" si="5"/>
         <v>0.47639320000000002</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>35</v>
       </c>
       <c r="D8">
         <v>258603.50589510059</v>
       </c>
-      <c r="F8">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>316.78929472149827</v>
+      </c>
+      <c r="G8">
         <v>35</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>258206.90399167468</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>316.30345738980151</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>249803.4266505205</v>
       </c>
       <c r="M8">
+        <f t="shared" si="2"/>
+        <v>306.00919764688763</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>249513.93191427275</v>
+      </c>
+      <c r="Q8">
+        <f>(P8*1.225)/1000</f>
+        <v>305.65456659498415</v>
+      </c>
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="V8">
         <v>-0.173648</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
+      <c r="W8">
+        <f t="shared" si="4"/>
         <v>0.66945919999999992</v>
       </c>
-      <c r="Q8">
+      <c r="Y8">
         <v>6</v>
       </c>
-      <c r="R8" s="1">
+      <c r="Z8" s="1">
         <v>6.1232300000000004E-17</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
+      <c r="AA8">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9">
         <v>258453.25518059239</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>316.60523759622572</v>
+      </c>
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>258165.68738573728</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>316.25296704752822</v>
+      </c>
+      <c r="K9">
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>249801.97198230034</v>
       </c>
       <c r="M9">
+        <f t="shared" si="2"/>
+        <v>306.00741567831795</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>249515.62793725551</v>
+      </c>
+      <c r="Q9">
+        <f>(P9*1.225)/1000</f>
+        <v>305.65664422313807</v>
+      </c>
+      <c r="U9">
         <v>7</v>
       </c>
-      <c r="N9">
+      <c r="V9">
         <v>-0.5</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
+      <c r="W9">
+        <f t="shared" si="4"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="Q9">
+      <c r="Y9">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="Z9">
         <v>-0.30901699999999999</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
+      <c r="AA9">
+        <f t="shared" si="5"/>
         <v>0.72360679999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>75</v>
       </c>
       <c r="D10">
         <v>258333.5954812218</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>316.4586544644967</v>
+      </c>
+      <c r="G10">
         <v>59</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>258150.02792221383</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>316.23378420471198</v>
+      </c>
+      <c r="K10">
+        <v>72</v>
+      </c>
+      <c r="L10">
+        <v>249802.11873362688</v>
+      </c>
       <c r="M10">
+        <f t="shared" si="2"/>
+        <v>306.007595448693</v>
+      </c>
+      <c r="O10">
+        <v>72</v>
+      </c>
+      <c r="P10">
+        <v>249517.31193463839</v>
+      </c>
+      <c r="Q10">
+        <f>(P10*1.225)/1000</f>
+        <v>305.65870711993205</v>
+      </c>
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="N10">
+      <c r="V10">
         <v>-0.76604399999999995</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
+      <c r="W10">
+        <f t="shared" si="4"/>
         <v>0.90641759999999982</v>
       </c>
-      <c r="Q10">
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="R10">
+      <c r="Z10">
         <v>-0.587785</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
+      <c r="AA10">
+        <f t="shared" si="5"/>
         <v>0.83511399999999991</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11">
         <v>258273.47721965995</v>
       </c>
-      <c r="F11">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>316.3850095940835</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>258150.02792221383</v>
       </c>
-      <c r="M11">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>316.23378420471198</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="V11">
         <v>-0.939693</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+      <c r="W11">
+        <f t="shared" si="4"/>
         <v>0.9758772</v>
       </c>
-      <c r="Q11">
+      <c r="Y11">
         <v>9</v>
       </c>
-      <c r="R11">
+      <c r="Z11">
         <v>-0.80901699999999999</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
+      <c r="AA11">
+        <f t="shared" si="5"/>
         <v>0.92360679999999995</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>250</v>
       </c>
       <c r="D12">
         <v>258170.49178326497</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>316.2588524344996</v>
+      </c>
+      <c r="G12">
         <v>250</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>258150.02792221383</v>
       </c>
-      <c r="M12">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>316.23378420471198</v>
+      </c>
+      <c r="U12">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="V12">
         <v>-1</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
+      <c r="W12">
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q12">
+      <c r="Y12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="Z12">
         <v>-0.95105700000000004</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
+      <c r="AA12">
+        <f t="shared" si="5"/>
         <v>0.98042279999999982</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="Q13">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13">
         <v>11</v>
       </c>
-      <c r="R13">
+      <c r="Z13">
         <v>-1</v>
       </c>
-      <c r="S13">
-        <f>0.6+R13 - 1.4*(R13)</f>
+      <c r="AA13">
+        <f>0.6+Z13 - 1.4*(Z13)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
